--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2725.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2725.xlsx
@@ -354,7 +354,7 @@
         <v>2.399124747591146</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.365318455890234</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2725.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2725.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164263525014912</v>
+        <v>0.892009437084198</v>
       </c>
       <c r="B1">
-        <v>2.399124747591146</v>
+        <v>1.482118844985962</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.942968606948853</v>
       </c>
       <c r="D1">
-        <v>2.365318455890234</v>
+        <v>3.99376106262207</v>
       </c>
       <c r="E1">
-        <v>1.216006335871487</v>
+        <v>1.200335741043091</v>
       </c>
     </row>
   </sheetData>
